--- a/model/跨境电子商务运单状态模板.xlsx
+++ b/model/跨境电子商务运单状态模板.xlsx
@@ -52,23 +52,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>备注啊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流运单状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>物流状态时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>物流运单状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注啊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>运抵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>201807121826</t>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180712182600</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +496,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -545,7 +545,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -565,7 +565,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -585,7 +585,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -605,7 +605,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -625,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -645,7 +645,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -665,7 +665,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -685,7 +685,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -705,7 +705,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
